--- a/biology/Botanique/André-Louis_Simon/André-Louis_Simon.xlsx
+++ b/biology/Botanique/André-Louis_Simon/André-Louis_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Louis_Simon</t>
+          <t>André-Louis_Simon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André-Louis Simon (Paris, 28 février 1877 - Londres, 5 septembre 1970[1]), bibliographe et écrivain, était un contributeur dans le domaine de la littérature du vin, de l'œnologie et des études culinaires et de la gastronomie. Il a écrit de nombreux ouvrages en anglais, ainsi qu'en français. Il fut président dans les années 1930 de la Wine and Food Society.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André-Louis Simon (Paris, 28 février 1877 - Londres, 5 septembre 1970), bibliographe et écrivain, était un contributeur dans le domaine de la littérature du vin, de l'œnologie et des études culinaires et de la gastronomie. Il a écrit de nombreux ouvrages en anglais, ainsi qu'en français. Il fut président dans les années 1930 de la Wine and Food Society.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Louis_Simon</t>
+          <t>André-Louis_Simon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Louis_Simon</t>
+          <t>André-Louis_Simon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A History of the Wine Trade in England. Vol.1: Des premiers temps au XIVe siècle. Vol.2 (1907) : XVe et XVIe siècles. Une étude rare et importante.
 Bibliotheca Vinaria. A Bibliography of Books and Pamphlets Dealing with Viticulture, Wine-Making, Distillation, the Management, Sale, Taxation, Use and Abuse of Wines and Spirits. Londres : Grant Richards, 1913. Réédité par Stephanie Hoppen aux éditions Holland Press suivant un manuscrit conservé à la bibliothèque du Wine Trade Club, où l'auteur avait porté de nombreuses augmentations et corrections autographes.
